--- a/biology/Zoologie/Grallaire_de_Whittaker/Grallaire_de_Whittaker.xlsx
+++ b/biology/Zoologie/Grallaire_de_Whittaker/Grallaire_de_Whittaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hylopezus whittakeri
-La Grallaire de Whittaker (Hylopezus whittakeri) est une espèce monotypique[2] d'oiseaux de la famille des Grallariidae endémique du Brésil.
+La Grallaire de Whittaker (Hylopezus whittakeri) est une espèce monotypique d'oiseaux de la famille des Grallariidae endémique du Brésil.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Hylopezus whittakeri a été initialement en 2012 par Lincoln S. Carneiro (d),Luiz P. Gonzaga (d), Péricles Sena Rêgo (d), Iracilda Sampaio (d), Horacio Schneider (d) et Alexandre L. P. Aleixo (d)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hylopezus whittakeri a été initialement en 2012 par Lincoln S. Carneiro (d),Luiz P. Gonzaga (d), Péricles Sena Rêgo (d), Iracilda Sampaio (d), Horacio Schneider (d) et Alexandre L. P. Aleixo (d).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Grallaire de Whittaker se rencontre au Brésil dans sa partie centre sud de l'Amazonie[3]. Cette espèce vit sur ou très près du sol dans les sous-bois denses des forêts humides de plaine, du niveau de la mer jusqu'à environ 500 m d'altitude[3]. Elle apprécie en particulier les zones humides ou inondées mais également les zones plus sèches dans la limite sud de son aire de répartition[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Grallaire de Whittaker se rencontre au Brésil dans sa partie centre sud de l'Amazonie. Cette espèce vit sur ou très près du sol dans les sous-bois denses des forêts humides de plaine, du niveau de la mer jusqu'à environ 500 m d'altitude. Elle apprécie en particulier les zones humides ou inondées mais également les zones plus sèches dans la limite sud de son aire de répartition.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, whittakeri, lui a été donnée en l'honneur de l'ornithologue britannique Andrew Whittaker (d) qui, durant ces vingt dernières années, a décrit plusieurs espèces, en a redécouvert d'autres et a préciser leurs aires de répartition[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, whittakeri, lui a été donnée en l'honneur de l'ornithologue britannique Andrew Whittaker (d) qui, durant ces vingt dernières années, a décrit plusieurs espèces, en a redécouvert d'autres et a préciser leurs aires de répartition.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Lincoln Silva Carneiro, Luiz Pedreira Gonzaga, Péricles S.Rêgo, Iracilda Sampaio, Horacio Schneider et Alexandre Aleixo, « Systematic revision of the Spotted Antpitta (Grallariidae: Hylopezus macularius), with description of a cryptic new species from Brazilian Amazonia », The Auk, Washington, AOS, vol. 129, no 2,‎ avril 2012, p. 338-351 (ISSN 0004-8038 et 1938-4254, OCLC 636759596 et 1518634, BNF 37574357, DOI 10.1525/AUK.2012.11157)</t>
         </is>
